--- a/wash_P/CHI.xlsx
+++ b/wash_P/CHI.xlsx
@@ -34148,7 +34148,7 @@
         <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
@@ -37804,7 +37804,7 @@
         <v>0</v>
       </c>
       <c r="KI12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ12" t="n">
         <v>0</v>
@@ -37828,7 +37828,7 @@
         <v>0</v>
       </c>
       <c r="KQ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR12" t="n">
         <v>0</v>
@@ -46603,7 +46603,7 @@
         <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
@@ -92588,7 +92588,7 @@
         <v>0</v>
       </c>
       <c r="AEY29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEZ29" t="n">
         <v>0</v>
